--- a/examples/tidy-data_spreadsheets/tidy-data_merge-cells.xlsx
+++ b/examples/tidy-data_spreadsheets/tidy-data_merge-cells.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biodiversityaq/Desktop/data-fairy/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biodiversityaq/Desktop/data-fairy/examples/tidy-data_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99016D14-9F01-2B49-B23D-E20502A8CFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D47272C-79D9-D644-A18C-885FD322ED07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{41F4FE99-1BE8-A44F-AD6B-0FB4AA756BF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>species</t>
   </si>
@@ -45,28 +45,25 @@
     <t>image</t>
   </si>
   <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>fieldNotes</t>
-  </si>
-  <si>
-    <t>img_PA_AP</t>
-  </si>
-  <si>
     <t>img_AP_3</t>
   </si>
   <si>
-    <t>img_AF_4</t>
-  </si>
-  <si>
-    <t>occurrence of 1,2 are captured in the same image</t>
+    <t>Amphioplus peregrinator</t>
+  </si>
+  <si>
+    <t>img_AP_4</t>
+  </si>
+  <si>
+    <t>img_CO_AP</t>
+  </si>
+  <si>
+    <t>Charcotia obesa</t>
+  </si>
+  <si>
+    <t>2 species are captured in the same image</t>
+  </si>
+  <si>
+    <t>eventRemarks</t>
   </si>
 </sst>
 </file>
@@ -90,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -113,15 +110,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,11 +469,12 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="33.83203125" customWidth="1"/>
     <col min="4" max="4" width="42.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -459,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -467,13 +497,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -484,9 +514,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -496,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -505,16 +533,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
